--- a/MaterialsWall/App_Data/data.xlsx
+++ b/MaterialsWall/App_Data/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="651">
   <si>
     <t>ABS</t>
   </si>
@@ -1981,6 +1981,18 @@
   </si>
   <si>
     <t>Sterile waste-derived fibre mix is resulting from steam autoclave treatment of mixed domestic waste and "black bag" waste. It comprises up to 98% celllulose/hemicellulose</t>
+  </si>
+  <si>
+    <t>Claws</t>
+  </si>
+  <si>
+    <t>Adamantium</t>
+  </si>
+  <si>
+    <t>Exoskeletons, snick</t>
+  </si>
+  <si>
+    <t>b72ac86c-f798-40f7-b177-20ef6d7b8f82</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2111,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2133,10 +2145,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2150,7 +2159,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2535,13 +2556,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q178"/>
+  <dimension ref="A1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2612,51 +2633,66 @@
     </row>
     <row r="2" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>461</v>
+        <v>473</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>570</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="J3" s="3" t="s">
-        <v>590</v>
+      <c r="F3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2951,415 +2987,405 @@
       </c>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>584</v>
+        <v>352</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="4">
-        <v>176</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>589</v>
+      <c r="C17" s="5">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="12.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>563</v>
+        <v>353</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="4">
-        <v>167</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="C18" s="5">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H18" s="3" t="s">
-        <v>562</v>
+        <v>479</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>564</v>
+        <v>10</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>352</v>
+      <c r="A19" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>145</v>
+        <v>522</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C20" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>10</v>
+        <v>461</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>461</v>
+        <v>200</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>355</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>199</v>
+        <v>115</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>461</v>
+        <v>480</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>522</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>356</v>
+      <c r="A23" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C23" s="5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>512</v>
+        <v>201</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>358</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="C24" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>109</v>
+        <v>202</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>146</v>
+        <v>461</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C25" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>481</v>
+        <v>461</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="12.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>324</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>461</v>
-      </c>
+      <c r="J26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>359</v>
+      <c r="A27" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>461</v>
-      </c>
+      <c r="J27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C28" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C29" s="5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>362</v>
+        <v>140</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C30" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>9</v>
+        <v>116</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>461</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L30" s="6"/>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>363</v>
+        <v>100</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C31" s="5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>207</v>
+        <v>117</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>140</v>
+        <v>364</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C32" s="5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="L32" s="6"/>
+        <v>461</v>
+      </c>
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C33" s="5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>461</v>
@@ -3371,395 +3397,381 @@
     </row>
     <row r="34" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C34" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C35" s="5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>524</v>
+        <v>461</v>
       </c>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>367</v>
+        <v>444</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>461</v>
       </c>
+      <c r="I37" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="J37" s="2" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>368</v>
+        <v>138</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>212</v>
+        <v>118</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>461</v>
+        <v>147</v>
       </c>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>444</v>
+        <v>369</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C39" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>461</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>614</v>
+        <v>370</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="C40" s="4">
-        <v>178</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>616</v>
+        <v>93</v>
+      </c>
+      <c r="C40" s="5">
+        <v>41</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>619</v>
+        <v>527</v>
       </c>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>612</v>
+        <v>371</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>605</v>
+        <v>93</v>
       </c>
       <c r="C41" s="5">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>611</v>
+        <v>216</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="5">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>106</v>
+        <v>217</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="C43" s="5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C44" s="5">
-        <v>41</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>215</v>
+        <v>45</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>461</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="4">
-        <v>162</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="I45" s="8"/>
+      <c r="C45" s="5">
+        <v>46</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>461</v>
+      </c>
       <c r="J45" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
+        <v>466</v>
+      </c>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>579</v>
+        <v>376</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="4">
-        <v>174</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="C46" s="5">
+        <v>47</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>461</v>
+      </c>
       <c r="I46" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>589</v>
+        <v>66</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C47" s="5">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>528</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="2"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C48" s="5">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>56</v>
+        <v>119</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>529</v>
+      </c>
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>324</v>
+        <v>93</v>
       </c>
       <c r="C49" s="5">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>21</v>
+        <v>461</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>461</v>
@@ -3768,22 +3780,19 @@
     </row>
     <row r="50" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="C50" s="5">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>461</v>
@@ -3792,43 +3801,46 @@
     </row>
     <row r="51" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C51" s="5">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>461</v>
       </c>
+      <c r="I51" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J51" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C52" s="5">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>461</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>461</v>
@@ -3837,71 +3849,70 @@
     </row>
     <row r="53" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>381</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C53" s="5">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>506</v>
+        <v>227</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>530</v>
+      </c>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>133</v>
+        <v>382</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C54" s="5">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>96</v>
+        <v>228</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>461</v>
+        <v>485</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C55" s="5">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>461</v>
@@ -3913,16 +3924,16 @@
     </row>
     <row r="56" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C56" s="5">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>461</v>
@@ -3934,22 +3945,28 @@
     </row>
     <row r="57" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>379</v>
+        <v>141</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C57" s="5">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>225</v>
+        <v>120</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>461</v>
@@ -3958,22 +3975,25 @@
     </row>
     <row r="58" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C58" s="5">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>461</v>
+        <v>231</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>461</v>
@@ -3982,174 +4002,158 @@
     </row>
     <row r="59" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="C59" s="5">
-        <v>54</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>382</v>
+        <v>142</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C60" s="5">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
       <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C61" s="5">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>609</v>
+        <v>387</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="C62" s="4">
-        <v>180</v>
+        <v>324</v>
+      </c>
+      <c r="C62" s="5">
+        <v>63</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>608</v>
+        <v>234</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="Q62" s="3"/>
     </row>
     <row r="63" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>580</v>
+        <v>388</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="4">
-        <v>173</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="C63" s="5">
+        <v>64</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>461</v>
+      </c>
       <c r="I63" s="3" t="s">
-        <v>575</v>
+        <v>24</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="Q63" s="3"/>
     </row>
     <row r="64" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>324</v>
+        <v>93</v>
       </c>
       <c r="C64" s="5">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>461</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="J64" s="2"/>
       <c r="Q64" s="3"/>
     </row>
     <row r="65" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>141</v>
+        <v>390</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C65" s="5">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>461</v>
@@ -4158,348 +4162,351 @@
     </row>
     <row r="66" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C66" s="5">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>507</v>
+        <v>238</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>461</v>
+        <v>145</v>
       </c>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>324</v>
+        <v>93</v>
       </c>
       <c r="C67" s="5">
-        <v>60</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>232</v>
+        <v>68</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>560</v>
+        <v>446</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="4">
-        <v>166</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="C68" s="5">
+        <v>69</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="I68" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>592</v>
+        <v>461</v>
       </c>
       <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>393</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="5">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>461</v>
+        <v>241</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>531</v>
+        <v>467</v>
       </c>
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C70" s="5">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="J70" s="2"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>324</v>
+        <v>93</v>
       </c>
       <c r="C71" s="5">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>388</v>
+        <v>136</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="5">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>235</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G72" s="2"/>
       <c r="H72" s="3" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>443</v>
+        <v>136</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C73" s="5">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>315</v>
+        <v>244</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>461</v>
+        <v>488</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>157</v>
+        <v>534</v>
       </c>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C74" s="5">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="J74" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C75" s="5">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>237</v>
+        <v>246</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C76" s="5">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J76" s="2" t="s">
-        <v>145</v>
+        <v>535</v>
       </c>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C77" s="5">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>33</v>
+        <v>461</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="4">
-        <v>159</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>622</v>
+      <c r="C78" s="5">
+        <v>79</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>328</v>
+        <v>97</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
+        <v>523</v>
+      </c>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>324</v>
+        <v>93</v>
       </c>
       <c r="C79" s="5">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>554</v>
+        <v>249</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>461</v>
@@ -4508,150 +4515,136 @@
     </row>
     <row r="80" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="5">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>55</v>
+        <v>250</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C81" s="5">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="J81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C82" s="5">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>461</v>
+        <v>536</v>
       </c>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>403</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C83" s="5">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G83" s="2"/>
+        <v>253</v>
+      </c>
       <c r="H83" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>60</v>
+        <v>461</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>404</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>324</v>
+        <v>93</v>
       </c>
       <c r="C84" s="5">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>60</v>
+        <v>461</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>534</v>
+        <v>461</v>
       </c>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>396</v>
+        <v>64</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="5">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>245</v>
+        <v>255</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>461</v>
@@ -4660,321 +4653,292 @@
     </row>
     <row r="86" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>397</v>
+        <v>59</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C86" s="5">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>50</v>
+        <v>256</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C87" s="5">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>535</v>
+        <v>461</v>
       </c>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>399</v>
+        <v>62</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C88" s="5">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>248</v>
+        <v>323</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C89" s="5">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="Q89" s="3"/>
     </row>
     <row r="90" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>400</v>
+        <v>618</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>93</v>
+        <v>605</v>
       </c>
       <c r="C90" s="5">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>461</v>
+        <v>643</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>619</v>
       </c>
       <c r="Q90" s="3"/>
     </row>
     <row r="91" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="C91" s="5">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>250</v>
+        <v>259</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>15</v>
+        <v>494</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>461</v>
+        <v>538</v>
       </c>
       <c r="Q91" s="3"/>
     </row>
     <row r="92" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C92" s="5">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>251</v>
+        <v>260</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="Q92" s="3"/>
     </row>
     <row r="93" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>339</v>
+        <v>407</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="4">
-        <v>163</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="I93" s="8"/>
+      <c r="C93" s="5">
+        <v>94</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J93" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
+        <v>463</v>
+      </c>
       <c r="Q93" s="3"/>
     </row>
     <row r="94" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C94" s="5">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Q94" s="3"/>
     </row>
     <row r="95" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C95" s="5">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="Q95" s="3"/>
     </row>
     <row r="96" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C96" s="5">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>461</v>
+        <v>145</v>
       </c>
       <c r="Q96" s="3"/>
     </row>
     <row r="97" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>64</v>
+        <v>448</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="5">
-        <v>87</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>40</v>
+        <v>98</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>7</v>
+        <v>461</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="Q97" s="3"/>
     </row>
     <row r="98" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>59</v>
+        <v>410</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C98" s="5">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>6</v>
+        <v>461</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>461</v>
@@ -4983,237 +4947,231 @@
     </row>
     <row r="99" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C99" s="5">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>257</v>
+        <v>266</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="Q99" s="3"/>
     </row>
     <row r="100" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>586</v>
+        <v>450</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C100" s="4">
-        <v>177</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="I100" s="3" t="s">
-        <v>575</v>
+      <c r="C100" s="5">
+        <v>102</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="Q100" s="3"/>
     </row>
     <row r="101" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C101" s="5">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>164</v>
+        <v>268</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>537</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="2"/>
       <c r="Q101" s="3"/>
     </row>
     <row r="102" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C102" s="5">
-        <v>91</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>461</v>
+        <v>104</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>535</v>
+        <v>461</v>
       </c>
       <c r="Q102" s="3"/>
     </row>
     <row r="103" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>324</v>
+        <v>93</v>
       </c>
       <c r="C103" s="5">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>494</v>
+        <v>86</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>538</v>
+        <v>461</v>
       </c>
       <c r="Q103" s="3"/>
     </row>
     <row r="104" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C104" s="5">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>91</v>
+        <v>271</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="Q104" s="3"/>
     </row>
     <row r="105" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>407</v>
+        <v>90</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C105" s="5">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>56</v>
+        <v>272</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>12</v>
+        <v>497</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>463</v>
+        <v>540</v>
       </c>
       <c r="Q105" s="3"/>
     </row>
     <row r="106" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C106" s="5">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>124</v>
+        <v>273</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>603</v>
+    <row r="107" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C107" s="4">
-        <v>157</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="I107" s="2"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
+      <c r="C107" s="5">
+        <v>109</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J107" s="2"/>
       <c r="Q107" s="3"/>
     </row>
     <row r="108" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C108" s="5">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>461</v>
@@ -5225,949 +5183,905 @@
     </row>
     <row r="109" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C109" s="5">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>461</v>
       </c>
+      <c r="I109" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J109" s="2" t="s">
-        <v>145</v>
+        <v>461</v>
       </c>
       <c r="Q109" s="3"/>
     </row>
     <row r="110" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>448</v>
+        <v>135</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C110" s="5">
-        <v>98</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>264</v>
+        <v>112</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>539</v>
+      <c r="J110" s="2"/>
+      <c r="K110" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="Q110" s="3"/>
     </row>
     <row r="111" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C111" s="5">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>461</v>
+        <v>542</v>
       </c>
       <c r="Q111" s="3"/>
     </row>
     <row r="112" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C112" s="5">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>495</v>
+        <v>476</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="Q112" s="3"/>
     </row>
     <row r="113" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C113" s="5">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>461</v>
+        <v>476</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="Q113" s="3"/>
     </row>
     <row r="114" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C114" s="5">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J114" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>543</v>
+      </c>
       <c r="Q114" s="3"/>
     </row>
     <row r="115" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C115" s="5">
-        <v>104</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>74</v>
+        <v>117</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>461</v>
+        <v>535</v>
       </c>
       <c r="Q115" s="3"/>
     </row>
     <row r="116" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C116" s="5">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>508</v>
+        <v>282</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>461</v>
+        <v>544</v>
       </c>
       <c r="Q116" s="3"/>
     </row>
     <row r="117" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>574</v>
+        <v>418</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C117" s="4">
-        <v>172</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="I117" s="3" t="s">
-        <v>575</v>
+      <c r="C117" s="5">
+        <v>119</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="Q117" s="3"/>
     </row>
     <row r="118" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C118" s="5">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>497</v>
+        <v>461</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="Q118" s="3"/>
     </row>
     <row r="119" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C119" s="5">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>497</v>
+        <v>461</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="Q119" s="3"/>
     </row>
     <row r="120" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>557</v>
+        <v>421</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C120" s="4">
-        <v>161</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2" t="s">
-        <v>337</v>
+      <c r="C120" s="5">
+        <v>123</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="I120" s="8"/>
+        <v>476</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="J120" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
+        <v>461</v>
+      </c>
       <c r="Q120" s="3"/>
     </row>
     <row r="121" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>601</v>
+        <v>137</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C121" s="4">
-        <v>161</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>625</v>
+        <v>93</v>
+      </c>
+      <c r="C121" s="5">
+        <v>124</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G121" s="2"/>
+      <c r="H121" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="Q121" s="3"/>
     </row>
     <row r="122" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>104</v>
+        <v>422</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C122" s="5">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>77</v>
+        <v>461</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>182</v>
+        <v>461</v>
       </c>
       <c r="Q122" s="3"/>
     </row>
     <row r="123" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>65</v>
+        <v>423</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C123" s="5">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>46</v>
+        <v>288</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>541</v>
+        <v>148</v>
       </c>
       <c r="Q123" s="3"/>
     </row>
     <row r="124" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>63</v>
+        <v>424</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C124" s="5">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="J124" s="2"/>
+      <c r="J124" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="Q124" s="3"/>
     </row>
     <row r="125" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C125" s="5">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q125" s="3"/>
     </row>
     <row r="126" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C126" s="5">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q126" s="3"/>
     </row>
     <row r="127" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>453</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C127" s="5">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>179</v>
+        <v>292</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J127" s="2"/>
-      <c r="K127" s="3" t="s">
-        <v>169</v>
+        <v>502</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="Q127" s="3"/>
     </row>
     <row r="128" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C128" s="5">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>542</v>
+        <v>461</v>
       </c>
       <c r="Q128" s="3"/>
     </row>
     <row r="129" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C129" s="5">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>461</v>
+        <v>146</v>
       </c>
       <c r="Q129" s="3"/>
     </row>
     <row r="130" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C130" s="5">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>56</v>
+        <v>295</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>461</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J130" s="2"/>
       <c r="Q130" s="3"/>
     </row>
     <row r="131" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>565</v>
+        <v>430</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C131" s="4">
-        <v>168</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="G131" s="2"/>
-      <c r="I131" s="3" t="s">
-        <v>566</v>
+      <c r="C131" s="5">
+        <v>134</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="Q131" s="3"/>
     </row>
     <row r="132" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C132" s="5">
-        <v>116</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>280</v>
+        <v>135</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>543</v>
+        <v>471</v>
       </c>
       <c r="Q132" s="3"/>
     </row>
     <row r="133" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>417</v>
+        <v>597</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C133" s="5">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>281</v>
+        <v>298</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>535</v>
+        <v>461</v>
       </c>
       <c r="Q133" s="3"/>
     </row>
     <row r="134" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C134" s="5">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>576</v>
+        <v>299</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>27</v>
+        <v>504</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>544</v>
+        <v>461</v>
       </c>
       <c r="Q134" s="3"/>
     </row>
     <row r="135" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C135" s="5">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>461</v>
       </c>
+      <c r="I135" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="J135" s="2" t="s">
-        <v>180</v>
+        <v>546</v>
       </c>
       <c r="Q135" s="3"/>
     </row>
     <row r="136" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>419</v>
+      <c r="A136" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C136" s="5">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="I136" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="J136" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="Q136" s="3"/>
     </row>
     <row r="137" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>568</v>
+        <v>434</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C137" s="4">
-        <v>169</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="C137" s="5">
+        <v>140</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="H137" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>569</v>
+        <v>461</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="Q137" s="3"/>
     </row>
     <row r="138" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C138" s="5">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="I138" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="J138" s="2" t="s">
-        <v>546</v>
+        <v>461</v>
       </c>
       <c r="Q138" s="3"/>
     </row>
     <row r="139" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>421</v>
+        <v>132</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C139" s="5">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>56</v>
+        <v>128</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>87</v>
+        <v>461</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>461</v>
+        <v>515</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="Q139" s="3"/>
     </row>
     <row r="140" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>436</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C140" s="5">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G140" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H140" s="3" t="s">
-        <v>461</v>
+        <v>505</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="Q140" s="3"/>
     </row>
     <row r="141" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C141" s="5">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>461</v>
+        <v>549</v>
       </c>
       <c r="Q141" s="3"/>
     </row>
     <row r="142" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C142" s="5">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>48</v>
+        <v>306</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="J142" s="2"/>
       <c r="Q142" s="3"/>
     </row>
     <row r="143" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C143" s="5">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="Q143" s="3"/>
     </row>
     <row r="144" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C144" s="5">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>461</v>
+        <v>308</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="Q144" s="3"/>
     </row>
     <row r="145" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C145" s="5">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>35</v>
+        <v>461</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="Q145" s="3"/>
     </row>
     <row r="146" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C146" s="5">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>13</v>
+        <v>461</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q146" s="3"/>
     </row>
     <row r="147" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C147" s="5">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>461</v>
@@ -6179,336 +6093,374 @@
     </row>
     <row r="148" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C148" s="5">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="I148" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J148" s="2" t="s">
-        <v>146</v>
+        <v>539</v>
       </c>
       <c r="Q148" s="3"/>
     </row>
     <row r="149" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C149" s="5">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>461</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J149" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="Q149" s="3"/>
     </row>
     <row r="150" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C150" s="5">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>548</v>
+        <v>461</v>
       </c>
       <c r="Q150" s="3"/>
     </row>
     <row r="151" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>431</v>
+        <v>144</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C151" s="5">
-        <v>135</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>297</v>
+        <v>154</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>645</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>461</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q151" s="3"/>
     </row>
     <row r="152" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>597</v>
+        <v>139</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C152" s="5">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>81</v>
+        <v>130</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>503</v>
+        <v>461</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>461</v>
+        <v>552</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="Q152" s="3"/>
     </row>
     <row r="153" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>57</v>
+        <v>443</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="C153" s="5">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>461</v>
+        <v>553</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="Q153" s="3"/>
     </row>
-    <row r="154" spans="1:17" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>432</v>
+    <row r="154" spans="1:17" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>603</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C154" s="5">
-        <v>138</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="K154" s="3"/>
-      <c r="L154" s="3"/>
-      <c r="M154" s="3"/>
-      <c r="N154" s="3"/>
-      <c r="O154" s="3"/>
-      <c r="P154" s="3"/>
+      <c r="C154" s="4">
+        <v>157</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="I154" s="2"/>
+      <c r="K154" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
     </row>
     <row r="155" spans="1:17" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C155" s="4">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F155" s="2"/>
+        <v>646</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="G155" s="2"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="K155" s="3"/>
-      <c r="L155" s="3"/>
-      <c r="M155" s="3"/>
-      <c r="N155" s="3"/>
-      <c r="O155" s="3"/>
-      <c r="P155" s="3"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
     </row>
     <row r="156" spans="1:17" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="12" t="s">
-        <v>556</v>
+      <c r="A156" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C156" s="4">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E156" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>595</v>
+      </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="K156" s="3"/>
-      <c r="L156" s="3"/>
-      <c r="M156" s="3"/>
-      <c r="N156" s="3"/>
-      <c r="O156" s="3"/>
-      <c r="P156" s="3"/>
+      <c r="H156" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="157" spans="1:17" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>558</v>
+        <v>330</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C157" s="4">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="E157" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>596</v>
+      </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="K157" s="3"/>
-      <c r="L157" s="3"/>
-      <c r="M157" s="3"/>
-      <c r="N157" s="3"/>
-      <c r="O157" s="3"/>
-      <c r="P157" s="3"/>
+      <c r="H157" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K157" s="10" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="158" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="12" t="s">
-        <v>433</v>
+      <c r="A158" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C158" s="5">
-        <v>139</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>301</v>
+      <c r="C158" s="4">
+        <v>161</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>461</v>
       </c>
+      <c r="I158" s="8"/>
       <c r="J158" s="2" t="s">
-        <v>549</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="8"/>
+      <c r="N158" s="8"/>
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
       <c r="Q158" s="3"/>
     </row>
     <row r="159" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>434</v>
+        <v>601</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C159" s="5">
-        <v>140</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H159" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>529</v>
-      </c>
+      <c r="C159" s="4">
+        <v>161</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
       <c r="Q159" s="3"/>
     </row>
     <row r="160" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C160" s="4">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>331</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I160" s="8"/>
       <c r="J160" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="K160" s="10" t="s">
-        <v>332</v>
-      </c>
+      <c r="K160" s="8"/>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
       <c r="N160" s="8"/>
@@ -6518,287 +6470,304 @@
     </row>
     <row r="161" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>600</v>
+        <v>339</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C161" s="4">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>646</v>
+        <v>555</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="K161" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
+      <c r="H161" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="I161" s="8"/>
+      <c r="J161" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="8"/>
+      <c r="N161" s="8"/>
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
       <c r="Q161" s="3"/>
     </row>
     <row r="162" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>435</v>
+      <c r="A162" s="12" t="s">
+        <v>556</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C162" s="5">
-        <v>141</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H162" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>461</v>
+      <c r="C162" s="4">
+        <v>164</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="I162" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="Q162" s="3"/>
     </row>
     <row r="163" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>132</v>
+        <v>558</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C163" s="5">
-        <v>142</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H163" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="K163" s="3" t="s">
-        <v>162</v>
+      <c r="C163" s="4">
+        <v>165</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="I163" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="Q163" s="3"/>
     </row>
     <row r="164" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>436</v>
+        <v>560</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C164" s="5">
-        <v>143</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H164" s="3" t="s">
-        <v>505</v>
-      </c>
+      <c r="C164" s="4">
+        <v>166</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
       <c r="I164" s="3" t="s">
-        <v>75</v>
+        <v>561</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="Q164" s="3"/>
     </row>
     <row r="165" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>437</v>
+        <v>563</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C165" s="5">
-        <v>144</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>305</v>
-      </c>
+      <c r="C165" s="4">
+        <v>167</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
       <c r="H165" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J165" s="2" t="s">
-        <v>549</v>
+        <v>562</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="Q165" s="3"/>
     </row>
     <row r="166" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>454</v>
+        <v>565</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C166" s="5">
-        <v>145</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H166" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J166" s="2"/>
+      <c r="C166" s="4">
+        <v>168</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="I166" s="3" t="s">
+        <v>566</v>
+      </c>
       <c r="Q166" s="3"/>
     </row>
     <row r="167" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>438</v>
+        <v>568</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C167" s="5">
-        <v>146</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>307</v>
-      </c>
+      <c r="C167" s="4">
+        <v>169</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
       <c r="H167" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>548</v>
+        <v>578</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="Q167" s="3"/>
     </row>
     <row r="168" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>455</v>
+        <v>570</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C168" s="5">
-        <v>147</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J168" s="2" t="s">
-        <v>461</v>
+      <c r="C168" s="4">
+        <v>170</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="J168" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="Q168" s="3"/>
     </row>
     <row r="169" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>439</v>
+        <v>571</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C169" s="5">
-        <v>148</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>461</v>
+      <c r="C169" s="4">
+        <v>171</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="Q169" s="3"/>
     </row>
     <row r="170" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>440</v>
+        <v>574</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C170" s="5">
-        <v>149</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>551</v>
+      <c r="C170" s="4">
+        <v>172</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="I170" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="Q170" s="3"/>
     </row>
     <row r="171" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>441</v>
+        <v>580</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C171" s="5">
-        <v>150</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>461</v>
+      <c r="C171" s="4">
+        <v>173</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="I171" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="Q171" s="3"/>
     </row>
     <row r="172" spans="1:17" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>456</v>
+        <v>579</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C172" s="5">
-        <v>151</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="I172" s="3"/>
-      <c r="J172" s="2" t="s">
-        <v>539</v>
+      <c r="C172" s="4">
+        <v>174</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>589</v>
       </c>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
@@ -6809,28 +6778,26 @@
     </row>
     <row r="173" spans="1:17" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>442</v>
+        <v>582</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C173" s="5">
-        <v>152</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3" t="s">
-        <v>461</v>
-      </c>
+      <c r="C173" s="4">
+        <v>175</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H173" s="3"/>
       <c r="I173" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>525</v>
+        <v>575</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>589</v>
       </c>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
@@ -6840,27 +6807,27 @@
       <c r="P173" s="3"/>
     </row>
     <row r="174" spans="1:17" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>457</v>
+      <c r="A174" s="12" t="s">
+        <v>584</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C174" s="5">
-        <v>153</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="I174" s="3"/>
-      <c r="J174" s="2" t="s">
-        <v>461</v>
+      <c r="C174" s="4">
+        <v>176</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>589</v>
       </c>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
@@ -6871,115 +6838,141 @@
     </row>
     <row r="175" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>144</v>
+        <v>586</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C175" s="5">
-        <v>154</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J175" s="2" t="s">
-        <v>467</v>
+      <c r="C175" s="4">
+        <v>177</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="I175" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="176" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>93</v>
+        <v>605</v>
       </c>
       <c r="C176" s="4">
-        <v>171</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>573</v>
+        <v>178</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>616</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>605</v>
       </c>
       <c r="C177" s="5">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="J177" s="3" t="s">
-        <v>619</v>
+        <v>642</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="K177" s="11" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>139</v>
+        <v>609</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C178" s="5">
-        <v>155</v>
+        <v>605</v>
+      </c>
+      <c r="C178" s="4">
+        <v>180</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>130</v>
+        <v>644</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>111</v>
+        <v>607</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J178" s="2" t="s">
-        <v>552</v>
+        <v>610</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>159</v>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C179" s="4">
+        <v>181</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W157"/>
   <sortState ref="A2:P178">
-    <sortCondition ref="A2:A178"/>
+    <sortCondition ref="C2:C178"/>
   </sortState>
-  <conditionalFormatting sqref="A173:A1048576 A1:A171">
+  <conditionalFormatting sqref="A173:A178 A1:A171 A180:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K32" r:id="rId1"/>
-    <hyperlink ref="K41" r:id="rId2"/>
+    <hyperlink ref="K30" r:id="rId1"/>
+    <hyperlink ref="K177" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
